--- a/data/trans_camb/P25A_4_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_4_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>32,76</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>2,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,87</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-0,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-1,12</t>
+          <t>-0,65</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>32,77</t>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,85</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-0,72</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>-1,04</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>1,58</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 0,0</t>
+          <t>-4,31; 0,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 0,0</t>
+          <t>-4,26; 0,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,1; 99,3</t>
+          <t>-4,84; 0,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 1,89</t>
+          <t>0,0; 7,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 0,92</t>
+          <t>-2,03; 6,02</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,96; 1,29</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,24; 0,58</t>
+          <t>-2,74; 0,91</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 0,05</t>
+          <t>-3,22; 0,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 99,11</t>
+          <t>0,0; 4,25</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 4,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-2,4; 0,32</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,79; 0,09</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; -0,3</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>0,4; 4,63</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 3,64</t>
         </is>
       </c>
     </row>
@@ -748,37 +856,67 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2398,82%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-29,57%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-64,96%</t>
+          <t>119,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-65,53%</t>
+          <t>-28,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-82,65%</t>
+          <t>-100,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2426,13%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>-69,52%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-77,71%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>194,86%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -853,42 +1021,72 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,53</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>37,71</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>55,63</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>0,62</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>45,05</t>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>-0,92</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,63</t>
+          <t>0,0; 2,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,67</t>
+          <t>0,0; 2,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 82,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,56</t>
+          <t>-6,28; 0,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>13,7; 85,68</t>
+          <t>0,0; 2,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 1,94</t>
+          <t>0,0; 2,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,15; 1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,29; 76,59</t>
+          <t>0,61; 5,61</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,64; 3,19</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 1,84</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0,15; 1,96</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>0,31; 3,12</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-3,16; 0,95</t>
         </is>
       </c>
     </row>
@@ -964,37 +1192,67 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,7%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I10" s="2" t="inlineStr">
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>-45,22%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-87,89; 575,53</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>-0,41</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-0,16</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,15</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,91</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>1,09</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,32</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,99</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,02</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
           <t>-0,36</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,11</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>99,64</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>1,04</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>66,18</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,48</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>84,41</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,0</t>
+          <t>-2,3; 0,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 0,52</t>
+          <t>-1,59; 0,49</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>98,12; 100,0</t>
+          <t>-0,49; 2,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,22; 1,96</t>
+          <t>-3,32; -0,31</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,25; 2,4</t>
+          <t>-4,77; -0,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,81; 100,0</t>
+          <t>0,24; 1,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,79</t>
+          <t>0,28; 2,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,17</t>
+          <t>0,32; 3,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>36,92; 100,0</t>
+          <t>-1,0; 4,24</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 4,21</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,46; 0,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,11; 1,32</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 2,26</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 1,58</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 1,09</t>
         </is>
       </c>
     </row>
@@ -1175,42 +1523,72 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-30,67%</t>
+          <t>-39,92%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>27556,67%</t>
+          <t>182,08%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
+      <c r="I14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
+      <c r="J14" s="2" t="inlineStr">
         <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>112,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>264,59%</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>46885,0%</t>
+          <t>107,04%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>116,46%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>90,82%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>239,24%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>495,6%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>1,46%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-22,72%</t>
         </is>
       </c>
     </row>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-71,29; 1027,85</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-78,36; 286,53</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-84,8; 164,09</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>40,08</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>1,02</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>57,84</t>
+          <t>0,78</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>51,25</t>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,17</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,38</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>1,45</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,87; 1,89</t>
+          <t>-0,91; 1,86</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,78</t>
+          <t>-1,0; 1,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 81,14</t>
+          <t>-1,27; 1,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,94; 2,53</t>
+          <t>-0,63; 3,93</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 2,02</t>
+          <t>-1,28; 3,44</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>26,57; 88,54</t>
+          <t>-0,93; 2,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,39; 1,74</t>
+          <t>-1,48; 2,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 1,45</t>
+          <t>-1,02; 2,77</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,81; 72,7</t>
+          <t>-0,51; 5,06</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-1,67; 4,53</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,44; 1,79</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-0,8; 1,45</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,62</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,15; 3,31</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,81; 2,93</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>116,0%</t>
+          <t>101,56%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>104,82%</t>
+          <t>93,96%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>9251,28%</t>
+          <t>39,21%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>110,6%</t>
+          <t>161,37%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>57,53%</t>
+          <t>79,99%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>7626,94%</t>
+          <t>89,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>111,63%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>73,35%</t>
+          <t>92,07%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>8513,98%</t>
+          <t>115,37%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>47,34%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>56,98%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>72,9%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>124,99%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>58,31%</t>
         </is>
       </c>
     </row>
@@ -1464,22 +1962,52 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>565,97; —</t>
+          <t>-85,61; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-64,28; 949,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-68,32; 1194,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2202,19; 44380,81</t>
+          <t>-40,6; 777,45</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-49,74; 410,13</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-53,89; 1196,63</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-73,23; 694,8</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-68,07; 636,29</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-29,15; 548,71</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-43,81; 287,42</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>62,54</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>-0,15</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,05</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>-1,45</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,63</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,44</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
           <t>0,81</t>
         </is>
       </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>-1,57</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>68,43</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>0,93</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>64,93</t>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 4,45</t>
+          <t>-2,45; 3,68</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 9,28</t>
+          <t>-0,76; 7,97</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38,41; 85,2</t>
+          <t>-1,91; 4,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 3,91</t>
+          <t>-0,87; 7,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,62; 0,44</t>
+          <t>-5,64; 4,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>39,36; 88,57</t>
+          <t>-2,17; 4,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 3,0</t>
+          <t>-4,59; 0,53</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 3,65</t>
+          <t>-2,85; 4,24</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>48,06; 79,84</t>
+          <t>-2,37; 6,17</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-3,6; 5,02</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,35; 3,01</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,7; 3,37</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-1,41; 3,12</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 5,66</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,8</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>51,79%</t>
+          <t>36,56%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>137,55%</t>
+          <t>120,79%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3106,6%</t>
+          <t>47,33%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>32,58%</t>
+          <t>102,97%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-62,8%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2737,06%</t>
+          <t>43,64%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>40,97%</t>
+          <t>-60,45%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>24,83%</t>
+          <t>26,22%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2873,38%</t>
+          <t>66,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>9,58%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>40,25%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>22,64%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>36,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>84,45%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-65,27; 686,47</t>
+          <t>-72,59; 459,86</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-53,29; 1034,79</t>
+          <t>-52,87; 950,37</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>864,03; 9192,54</t>
+          <t>-65,62; 657,15</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 453,37</t>
+          <t>-31,66; 457,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 105,96</t>
+          <t>-59,53; 128,03</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>994,73; 8830,4</t>
+          <t>-60,44; 441,47</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 225,4</t>
+          <t>-100,0; 123,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-53,71; 291,11</t>
+          <t>-77,84; 434,81</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>1370,83; 5995,01</t>
+          <t>-55,53; 541,93</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-58,28; 207,91</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-44,22; 233,55</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-60,7; 233,33</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-46,9; 221,58</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-13,69; 298,36</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-41,02; 105,48</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>-0,54</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>-0,79</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>-1,22</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>-1,25</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>1,46</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
           <t>0,23</t>
         </is>
       </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>38,96</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>1,34</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>61,8</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,09</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>0,86</t>
-        </is>
-      </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>43,41</t>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>4,49</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,1</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-1,94; 10,32</t>
+          <t>-3,56; 8,73</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 5,78</t>
+          <t>-5,66; 5,65</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>14,49; 67,23</t>
+          <t>-6,63; 4,67</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 2,9</t>
+          <t>-5,75; 4,03</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 6,1</t>
+          <t>-6,79; 3,76</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 97,97</t>
+          <t>-7,11; 2,92</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 4,61</t>
+          <t>-4,12; 8,26</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 4,97</t>
+          <t>-6,61; 4,73</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>19,91; 66,35</t>
+          <t>-4,08; 6,31</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>0,87; 9,93</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-3,89; 4,28</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-3,45; 5,35</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,32; 3,45</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-3,23; 4,28</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 5,67</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>52,16%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>4,46%</t>
+          <t>-2,39%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>762,63%</t>
+          <t>-9,71%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-17,94%</t>
+          <t>-15,7%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,18%</t>
+          <t>-22,34%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1720,17%</t>
+          <t>-28,26%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>25,77%</t>
+          <t>32,92%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>20,17%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1021,7%</t>
+          <t>22,78%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>368,82%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>15,65%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-2,04%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>5,82%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>68,54%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-37,52; 386,93</t>
+          <t>-48,59; 281,25</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-69,99; 237,85</t>
+          <t>-70,77; 212,96</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>197,08; 2212,36</t>
+          <t>-76,03; 180,15</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-85,06; 205,83</t>
+          <t>-78,04; 174,44</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-69,03; 371,31</t>
+          <t>-80,47; 161,07</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 6125,95</t>
+          <t>-88,78; 160,79</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-47,81; 171,28</t>
+          <t>-72,29; 371,56</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-44,36; 203,99</t>
+          <t>-84,62; 208,24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>309,93; 2378,12</t>
+          <t>-63,0; 281,72</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>-23,94; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-50,41; 141,87</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-53,8; 162,33</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-63,85; 122,2</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-52,49; 146,07</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-34,96; 349,39</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,42</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,36</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>49,99</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
+          <t>-0,6</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
           <t>0,29</t>
         </is>
       </c>
-      <c r="H28" s="2" t="inlineStr">
-        <is>
-          <t>62,46</t>
-        </is>
-      </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,32</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>54,48</t>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>1,57</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,94</t>
+          <t>-0,8; 1,68</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,66</t>
+          <t>-0,84; 1,65</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>36,51; 65,35</t>
+          <t>-1,11; 1,2</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,32</t>
+          <t>-0,64; 1,77</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1,39</t>
+          <t>-2,1; 0,76</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>44,54; 76,99</t>
+          <t>-1,18; 1,38</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 1,35</t>
+          <t>-0,88; 1,88</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,18</t>
+          <t>-0,82; 1,66</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>43,01; 66,11</t>
+          <t>0,2; 3,12</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>0,19; 2,98</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,23</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-0,65; 1,28</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,55; 1,11</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,21; 2,21</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,5</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>37,92%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>16,38%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>3445,77%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>24,85%</t>
+          <t>37,13%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>20,9%</t>
+          <t>-21,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4515,71%</t>
+          <t>19,93%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>31,38%</t>
+          <t>27,63%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>22,93%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>3846,66%</t>
+          <t>82,82%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>80,42%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>23,48%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>17,97%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>61,77%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>20,47%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-31,84; 203,88</t>
+          <t>-40,36; 167,1</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-42,75; 166,13</t>
+          <t>-43,99; 160,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>1869,57; 6349,45</t>
+          <t>-49,92; 118,85</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-39,3; 155,69</t>
+          <t>-30,78; 158,36</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-42,16; 162,17</t>
+          <t>-57,36; 39,69</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>2253,03; 8857,94</t>
+          <t>-49,31; 157,03</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,57; 118,06</t>
+          <t>-49,64; 211,71</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-27,48; 112,52</t>
+          <t>-44,77; 192,01</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2416,24; 6000,36</t>
+          <t>2,17; 227,01</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>3,55; 183,76</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-26,99; 109,18</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-34,38; 107,22</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-29,07; 97,92</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>8,34; 154,63</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>-16,31; 79,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
